--- a/ctdpy/templates/Format Physical and chemical.xlsx
+++ b/ctdpy/templates/Format Physical and chemical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15090" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15090" windowHeight="6270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Förklaring" sheetId="7" r:id="rId1"/>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4034,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
